--- a/output/02.compo-nutrient-patterns/summary_fish_compo_sp.xlsx
+++ b/output/02.compo-nutrient-patterns/summary_fish_compo_sp.xlsx
@@ -191,7 +191,7 @@
     <t xml:space="preserve">Protomyctophum tenisoni</t>
   </si>
   <si>
-    <t xml:space="preserve">Stomias sp</t>
+    <t xml:space="preserve">Stomias spp.</t>
   </si>
 </sst>
 </file>
